--- a/medicine/Médecine vétérinaire/Louis_Pinton/Louis_Pinton.xlsx
+++ b/medicine/Médecine vétérinaire/Louis_Pinton/Louis_Pinton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Louis Pinton, né le 24 octobre 1948 à Bonnat (Creuse)[1],[2] et mort le 17 novembre 2016 à Paris, est un homme politique français, président du conseil général de l'Indre et sénateur.
+Louis Pinton, né le 24 octobre 1948 à Bonnat (Creuse), et mort le 17 novembre 2016 à Paris, est un homme politique français, président du conseil général de l'Indre et sénateur.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur vétérinaire de profession, il devient sénateur de l'Indre le 22 novembre 2007 à la suite du décès de Daniel Bernardet. De 1998 à 2016, il préside le conseil départemental de l'Indre.
-En mars 2015, il est élu conseiller départemental[3] du canton de Neuvy-Saint-Sépulchre[4] en tandem avec Marie-Jeanne Lafarcinade[5],[6].
-Le 15 janvier 2016, il démissionne de la présidence du conseil départemental[7]. Serge Descout lui succède le 8 février 2016[8],[9].
-Il soutient Alain Juppé pour la primaire présidentielle des Républicains de 2016[10].
-Louis Pinton meurt le 17 novembre 2016 à l'âge de 68 ans[11],[12]. Il est remplacé par son suppléant Michel Blin[13] au conseil départemental[14], et par Frédérique Gerbaud au Sénat[15],[16].
+En mars 2015, il est élu conseiller départemental du canton de Neuvy-Saint-Sépulchre en tandem avec Marie-Jeanne Lafarcinade,.
+Le 15 janvier 2016, il démissionne de la présidence du conseil départemental. Serge Descout lui succède le 8 février 2016,.
+Il soutient Alain Juppé pour la primaire présidentielle des Républicains de 2016.
+Louis Pinton meurt le 17 novembre 2016 à l'âge de 68 ans,. Il est remplacé par son suppléant Michel Blin au conseil départemental, et par Frédérique Gerbaud au Sénat,.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sénateur de l'Indre de 2007 à 2016
 Conseiller départemental du canton de Neuvy-Saint-Sépulchre (1992-2016)
